--- a/3_Component_Results/OPA/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/OPA/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -600,19 +600,13 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>-1.082807286231812</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3.79510699602109</v>
       </c>
       <c r="D2">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="E2">
-        <v>0.1000000000000228</v>
-      </c>
-      <c r="F2">
-        <v>0.2000000000000029</v>
+        <v>-3.099081613727349</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -620,25 +614,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3.195106996021081</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-2.699081613727358</v>
       </c>
       <c r="D3">
-        <v>0.5999999999999943</v>
+        <v>-2.443706631981499</v>
       </c>
       <c r="E3">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="H3">
-        <v>-0.4999999999999715</v>
+        <v>-2.523758253012303</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -646,19 +631,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>-3.299081613727352</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-2.543706631981508</v>
       </c>
       <c r="D4">
-        <v>0.8999999999999915</v>
-      </c>
-      <c r="E4">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="F4">
-        <v>-0.0999999999999801</v>
+        <v>-2.123758253012312</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -666,25 +645,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-3.443706631981499</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-2.223758253012321</v>
       </c>
       <c r="D5">
-        <v>-0.1999999999999886</v>
+        <v>-1.468890451524714</v>
       </c>
       <c r="E5">
-        <v>-0.1000000000000228</v>
-      </c>
-      <c r="F5">
-        <v>-0.1999999999999886</v>
-      </c>
-      <c r="G5">
-        <v>-0.7000000000000173</v>
-      </c>
-      <c r="H5">
-        <v>-1.300000000000011</v>
+        <v>-1.01127304405648</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -692,19 +662,13 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-2.023758253012332</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-1.168890451524731</v>
       </c>
       <c r="D6">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>-0.7999999999999969</v>
+        <v>-0.5112730440564659</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -712,25 +676,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>-1.268890451524726</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.5887269559435282</v>
       </c>
       <c r="D7">
-        <v>0.2999999999999972</v>
+        <v>-0.592365984063804</v>
       </c>
       <c r="E7">
-        <v>-0.7999999999999972</v>
-      </c>
-      <c r="F7">
-        <v>-0.399999999999991</v>
-      </c>
-      <c r="G7">
-        <v>-0.500000000000014</v>
-      </c>
-      <c r="H7">
-        <v>0.499999999999986</v>
+        <v>-0.394327589997701</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -738,19 +693,13 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.288726955943531</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-0.7923659840638071</v>
       </c>
       <c r="D8">
-        <v>-0.5999999999999941</v>
-      </c>
-      <c r="E8">
-        <v>-0.3000000000000109</v>
-      </c>
-      <c r="F8">
-        <v>0.6999999999999891</v>
+        <v>-0.1943275899976979</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,25 +707,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>-0.192365984063813</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-0.09432758999769009</v>
       </c>
       <c r="D9">
-        <v>0.7999999999999969</v>
+        <v>2.703281951233038</v>
       </c>
       <c r="E9">
-        <v>0.8999999999999917</v>
-      </c>
-      <c r="F9">
-        <v>1.999386418031264</v>
-      </c>
-      <c r="G9">
-        <v>1.600000000000037</v>
-      </c>
-      <c r="H9">
-        <v>0.6936628669421057</v>
+        <v>0.050029794240118</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -784,19 +724,13 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>-0.894327589997687</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2.103281951233043</v>
       </c>
       <c r="D10">
-        <v>1.39938641803127</v>
-      </c>
-      <c r="E10">
-        <v>1.700000000000017</v>
-      </c>
-      <c r="F10">
-        <v>1.093662866942097</v>
+        <v>0.450029794240109</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -804,25 +738,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.7038955332017736</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>-0.3499702057599163</v>
       </c>
       <c r="D11">
-        <v>0.2936628669420713</v>
+        <v>2.429543206172341</v>
       </c>
       <c r="E11">
-        <v>0.8510931151766381</v>
-      </c>
-      <c r="F11">
-        <v>-0.1087918012315321</v>
-      </c>
-      <c r="G11">
-        <v>0.7000000000000166</v>
-      </c>
-      <c r="H11">
-        <v>0.2883004294841669</v>
+        <v>-0.157269272787175</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,19 +755,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>-0.6436330727019877</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2.529543206172349</v>
       </c>
       <c r="D12">
-        <v>-0.00879180123152401</v>
-      </c>
-      <c r="E12">
-        <v>0.8999999999999917</v>
-      </c>
-      <c r="F12">
-        <v>0.4883004294842119</v>
+        <v>0.04273072721287008</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -850,25 +769,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2.538335007403873</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>-0.05726927278715199</v>
       </c>
       <c r="D13">
-        <v>0.3883004294841899</v>
+        <v>2.245755750114029</v>
       </c>
       <c r="E13">
-        <v>0.5064838446063649</v>
-      </c>
-      <c r="F13">
-        <v>0.197956675563149</v>
-      </c>
-      <c r="G13">
-        <v>0.2000000000000171</v>
-      </c>
-      <c r="H13">
-        <v>1.104215093282221</v>
+        <v>1.43595737376981</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -876,19 +786,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>-0.4455697022713418</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1.745755750114085</v>
       </c>
       <c r="D14">
-        <v>-0.302043324436795</v>
-      </c>
-      <c r="E14">
-        <v>-0.2000000000000171</v>
-      </c>
-      <c r="F14">
-        <v>0.7042150932822158</v>
+        <v>1.035957373769805</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -896,25 +800,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>2.04779907455088</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1.13595737376977</v>
       </c>
       <c r="D15">
-        <v>0.8042150932821808</v>
+        <v>0.953600868878965</v>
       </c>
       <c r="E15">
-        <v>0.7494948292895176</v>
-      </c>
-      <c r="F15">
-        <v>0.6054150636472571</v>
-      </c>
-      <c r="G15">
-        <v>0.7000000000000308</v>
-      </c>
-      <c r="H15">
-        <v>0.5983949369540795</v>
+        <v>0.5275698783428595</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -922,19 +817,13 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.3317422804875889</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.2454735439491315</v>
       </c>
       <c r="D16">
-        <v>-0.1027122612825764</v>
-      </c>
-      <c r="E16">
-        <v>-0.04187606154140161</v>
-      </c>
-      <c r="F16">
-        <v>-0.1016050630459517</v>
+        <v>-0.1724301216571718</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -942,25 +831,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.3481858052317079</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.1724301216571291</v>
       </c>
       <c r="D17">
-        <v>-0.1016050630459091</v>
+        <v>-0.2559243910605034</v>
       </c>
       <c r="E17">
-        <v>-0.1001107530880603</v>
-      </c>
-      <c r="F17">
-        <v>-0.1980962996738214</v>
-      </c>
-      <c r="G17">
-        <v>-0.200000000000017</v>
-      </c>
-      <c r="H17">
-        <v>-0.2486835802838385</v>
+        <v>-0.1936072881632214</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -968,31 +848,19 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.07082505861122002</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.05592439106047209</v>
       </c>
       <c r="D18">
-        <v>0.001903700326209901</v>
+        <v>0.006392711836824105</v>
       </c>
       <c r="E18">
-        <v>-4.263256414560601E-14</v>
+        <v>0.2750010833296983</v>
       </c>
       <c r="F18">
-        <v>-0.04868358028379305</v>
-      </c>
-      <c r="G18">
-        <v>-0.04999710576718996</v>
-      </c>
-      <c r="H18">
-        <v>-0.0009490615713758643</v>
-      </c>
-      <c r="I18">
-        <v>5.684341886080801E-14</v>
-      </c>
-      <c r="J18">
-        <v>-0.3401796321601012</v>
+        <v>-0.2673551286853382</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1000,25 +868,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>-0.05782809138668199</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.006392711836767262</v>
       </c>
       <c r="D19">
-        <v>-0.04868358028384989</v>
+        <v>0.2750010833296699</v>
       </c>
       <c r="E19">
-        <v>-0.04999710576713312</v>
-      </c>
-      <c r="F19">
-        <v>-0.000949061571404286</v>
-      </c>
-      <c r="G19">
-        <v>5.684341886080801E-14</v>
-      </c>
-      <c r="H19">
-        <v>-0.340179632160087</v>
+        <v>-0.267355128685324</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1026,31 +885,25 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.05507629212061715</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.3250010833297097</v>
       </c>
       <c r="D20">
-        <v>0.0490509384286355</v>
+        <v>-0.2173551286853268</v>
       </c>
       <c r="E20">
-        <v>0.04999999999999716</v>
+        <v>0.006805710559603995</v>
       </c>
       <c r="F20">
-        <v>-0.2901796321600898</v>
+        <v>-0.8832529440181669</v>
       </c>
       <c r="G20">
-        <v>-0.2625026375028057</v>
+        <v>1.160136620983778</v>
       </c>
       <c r="H20">
-        <v>-0.3587092793436284</v>
-      </c>
-      <c r="I20">
-        <v>-0.2589194962581303</v>
-      </c>
-      <c r="J20">
-        <v>0.03999999999997217</v>
+        <v>0.3399999999999722</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1058,25 +911,22 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.2759501449010742</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>-0.2673551286853666</v>
       </c>
       <c r="D21">
-        <v>-0.3401796321601296</v>
+        <v>-0.03319428944041647</v>
       </c>
       <c r="E21">
-        <v>-0.3025026375028261</v>
+        <v>-0.9232529440181447</v>
       </c>
       <c r="F21">
-        <v>-0.3987092793436062</v>
+        <v>1.120136620983715</v>
       </c>
       <c r="G21">
-        <v>-0.2989194962581934</v>
-      </c>
-      <c r="H21">
-        <v>2.275957200481571E-14</v>
+        <v>0.3000000000000227</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1084,31 +934,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.07282450347476299</v>
       </c>
       <c r="C22">
-        <v>-0.002328370469214747</v>
+        <v>0.2669799775931949</v>
       </c>
       <c r="D22">
-        <v>-0.09870927934359486</v>
+        <v>-0.6232529440181334</v>
       </c>
       <c r="E22">
-        <v>-0.09891949625817631</v>
+        <v>1.320136620983732</v>
       </c>
       <c r="F22">
-        <v>0.1999999999999545</v>
+        <v>0.4999999999999545</v>
       </c>
       <c r="G22">
-        <v>0.252084961879774</v>
+        <v>0.610478045462429</v>
       </c>
       <c r="H22">
-        <v>0.2999999999999972</v>
+        <v>1.899999999999997</v>
       </c>
       <c r="I22">
-        <v>0.09961110544725216</v>
+        <v>1.35861733436488</v>
       </c>
       <c r="J22">
-        <v>0.1512430775576661</v>
+        <v>-0.1418773066947807</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1116,28 +966,28 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.2693083480624097</v>
       </c>
       <c r="C23">
-        <v>-0.09870927934363749</v>
+        <v>-0.623252944018176</v>
       </c>
       <c r="D23">
-        <v>-0.09891949625817631</v>
+        <v>1.320136620983732</v>
       </c>
       <c r="E23">
-        <v>0.199999999999983</v>
+        <v>0.499999999999983</v>
       </c>
       <c r="F23">
-        <v>0.2520849618797598</v>
+        <v>0.6104780454624148</v>
       </c>
       <c r="G23">
-        <v>0.2999999999999829</v>
+        <v>1.899999999999983</v>
       </c>
       <c r="H23">
-        <v>0.09961110544726637</v>
+        <v>1.358617334364894</v>
       </c>
       <c r="I23">
-        <v>0.1512430775576519</v>
+        <v>-0.1418773066947949</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1145,25 +995,25 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>-0.5245436646745385</v>
       </c>
       <c r="C24">
-        <v>0.001080503741832217</v>
+        <v>1.42013662098374</v>
       </c>
       <c r="D24">
-        <v>0.2999999999999489</v>
+        <v>0.5999999999999488</v>
       </c>
       <c r="E24">
-        <v>0.3520849618796973</v>
+        <v>0.7104780454623523</v>
       </c>
       <c r="F24">
-        <v>0.4000000000000057</v>
+        <v>2.000000000000006</v>
       </c>
       <c r="G24">
-        <v>0.1996111054472181</v>
+        <v>1.458617334364845</v>
       </c>
       <c r="H24">
-        <v>0.2512430775576604</v>
+        <v>-0.0418773066947864</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1171,34 +1021,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1.419056117241908</v>
       </c>
       <c r="C25">
-        <v>0.2999999999999915</v>
+        <v>0.5999999999999914</v>
       </c>
       <c r="D25">
-        <v>0.3519650211527079</v>
+        <v>0.7103581047353629</v>
       </c>
       <c r="E25">
-        <v>0.4000000000000057</v>
+        <v>2.000000000000006</v>
       </c>
       <c r="F25">
-        <v>0.1996111054472181</v>
+        <v>1.458617334364845</v>
       </c>
       <c r="G25">
-        <v>0.2512430775576178</v>
+        <v>-0.04187730669482903</v>
       </c>
       <c r="H25">
-        <v>0.1996651662948778</v>
+        <v>-0.1015300358914994</v>
       </c>
       <c r="I25">
-        <v>1.899999999999991</v>
+        <v>1.199999999999992</v>
       </c>
       <c r="J25">
-        <v>0.1018155905464795</v>
+        <v>0.3136677548153841</v>
       </c>
       <c r="K25">
-        <v>0.1027921018736606</v>
+        <v>-0.9790448517306634</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1206,31 +1056,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C26">
-        <v>0.05208496187973422</v>
+        <v>0.4104780454623892</v>
       </c>
       <c r="D26">
-        <v>0.09999999999999998</v>
+        <v>1.7</v>
       </c>
       <c r="E26">
-        <v>-0.1003888945527734</v>
+        <v>1.158617334364854</v>
       </c>
       <c r="F26">
-        <v>-0.0487569224423311</v>
+        <v>-0.3418773066947779</v>
       </c>
       <c r="G26">
-        <v>-0.1003348337051136</v>
+        <v>-0.4015300358914909</v>
       </c>
       <c r="H26">
-        <v>1.6</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="I26">
-        <v>-0.198184409453512</v>
+        <v>0.01366775481539262</v>
       </c>
       <c r="J26">
-        <v>-0.1972078981263451</v>
+        <v>-1.279044851730669</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1238,28 +1088,28 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.358393083582655</v>
       </c>
       <c r="C27">
-        <v>0.05000000000001137</v>
+        <v>1.650000000000011</v>
       </c>
       <c r="D27">
-        <v>-0.1503888945527905</v>
+        <v>1.108617334364837</v>
       </c>
       <c r="E27">
-        <v>-0.09875692244230549</v>
+        <v>-0.3918773066947523</v>
       </c>
       <c r="F27">
-        <v>-0.1503348337051023</v>
+        <v>-0.4515300358914796</v>
       </c>
       <c r="G27">
-        <v>1.550000000000011</v>
+        <v>0.8500000000000114</v>
       </c>
       <c r="H27">
-        <v>-0.248184409453529</v>
+        <v>-0.03633224518462441</v>
       </c>
       <c r="I27">
-        <v>-0.2472078981263621</v>
+        <v>-1.329044851730686</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1267,25 +1117,25 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="C28">
-        <v>-0.3003888945527734</v>
+        <v>0.958617334364854</v>
       </c>
       <c r="D28">
-        <v>-0.1487569224423311</v>
+        <v>-0.4418773066947779</v>
       </c>
       <c r="E28">
-        <v>-0.3003348337051136</v>
+        <v>-0.6015300358914909</v>
       </c>
       <c r="F28">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="G28">
-        <v>-0.398184409453512</v>
+        <v>-0.1863322451846073</v>
       </c>
       <c r="H28">
-        <v>-0.397207898126345</v>
+        <v>-1.479044851730669</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1293,34 +1143,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1.259006228917627</v>
       </c>
       <c r="C29">
-        <v>0.05124307755762914</v>
+        <v>-0.2418773066948177</v>
       </c>
       <c r="D29">
-        <v>-0.0003031874867645001</v>
+        <v>-0.3014983896731418</v>
       </c>
       <c r="E29">
-        <v>1.700000000000031</v>
+        <v>1.000000000000031</v>
       </c>
       <c r="F29">
-        <v>-0.09818440945349494</v>
+        <v>0.1136677548154097</v>
       </c>
       <c r="G29">
-        <v>-0.09720789812638486</v>
+        <v>-1.179044851730709</v>
       </c>
       <c r="H29">
-        <v>-0.0006632596227120757</v>
+        <v>0.1108804844682112</v>
       </c>
       <c r="I29">
-        <v>-0.0005260309296772903</v>
+        <v>2.320076036519907</v>
       </c>
       <c r="J29">
-        <v>-0.801866008463946</v>
+        <v>-0.585713798234792</v>
       </c>
       <c r="K29">
-        <v>-0.8007110926345289</v>
+        <v>-0.2260365910423587</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1328,31 +1178,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>-0.2931203842524468</v>
       </c>
       <c r="C30">
-        <v>-0.05079719329128807</v>
+        <v>-0.3519923954776654</v>
       </c>
       <c r="D30">
-        <v>1.651000000000039</v>
+        <v>0.9510000000000389</v>
       </c>
       <c r="E30">
-        <v>-0.1471844094535157</v>
+        <v>0.06466775481538889</v>
       </c>
       <c r="F30">
-        <v>-0.1462078981263488</v>
+        <v>-1.228044851730673</v>
       </c>
       <c r="G30">
-        <v>-0.04966325962270446</v>
+        <v>0.06188048446821881</v>
       </c>
       <c r="H30">
-        <v>-0.04952603092964125</v>
+        <v>2.271076036519943</v>
       </c>
       <c r="I30">
-        <v>-0.8508660084639383</v>
+        <v>-0.6347137982347844</v>
       </c>
       <c r="J30">
-        <v>-0.8497110926345497</v>
+        <v>-0.2750365910423795</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1360,28 +1210,28 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>-0.3011952021863773</v>
       </c>
       <c r="C31">
-        <v>1.699999999999989</v>
+        <v>0.9999999999999887</v>
       </c>
       <c r="D31">
-        <v>-0.09818440945352336</v>
+        <v>0.1136677548153813</v>
       </c>
       <c r="E31">
-        <v>-0.09720789812632802</v>
+        <v>-1.179044851730652</v>
       </c>
       <c r="F31">
-        <v>-0.0006632596227547083</v>
+        <v>0.1108804844681686</v>
       </c>
       <c r="G31">
-        <v>-0.000526030929606236</v>
+        <v>2.320076036519978</v>
       </c>
       <c r="H31">
-        <v>-0.8018660084639744</v>
+        <v>-0.5857137982348204</v>
       </c>
       <c r="I31">
-        <v>-0.8007110926345857</v>
+        <v>-0.2260365910424156</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1389,25 +1239,25 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
       <c r="C32">
-        <v>0.201815590546488</v>
+        <v>0.4136677548153926</v>
       </c>
       <c r="D32">
-        <v>0.002792101873654973</v>
+        <v>-1.079044851730669</v>
       </c>
       <c r="E32">
-        <v>-0.1006632596227007</v>
+        <v>0.01088048446822254</v>
       </c>
       <c r="F32">
-        <v>-0.1005260309296233</v>
+        <v>2.220076036519961</v>
       </c>
       <c r="G32">
-        <v>-0.901866008463963</v>
+        <v>-0.685713798234809</v>
       </c>
       <c r="H32">
-        <v>-0.900711092634546</v>
+        <v>-0.3260365910423758</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1415,34 +1265,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>0.2118521642689046</v>
       </c>
       <c r="C33">
-        <v>0.002792101873637876</v>
+        <v>-1.079044851730686</v>
       </c>
       <c r="D33">
-        <v>-0.0003950226499398468</v>
+        <v>0.1111487214409834</v>
       </c>
       <c r="E33">
-        <v>-0.0005260309296346577</v>
+        <v>2.32007603651995</v>
       </c>
       <c r="F33">
-        <v>-0.8018660084639744</v>
+        <v>-0.5857137982348204</v>
       </c>
       <c r="G33">
-        <v>-0.8007110926345857</v>
+        <v>-0.2260365910424156</v>
       </c>
       <c r="H33">
-        <v>-0.6977662932861077</v>
+        <v>-0.6238769106319917</v>
       </c>
       <c r="I33">
-        <v>-0.2013714134183857</v>
+        <v>2.836777872354205</v>
       </c>
       <c r="J33">
-        <v>0.2961470224151128</v>
+        <v>-0.09340513149564345</v>
       </c>
       <c r="K33">
-        <v>-0.2991743200616526</v>
+        <v>-0.3299754819599339</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1450,31 +1300,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>-1.081836953604324</v>
       </c>
       <c r="C34">
-        <v>-0.0003547099741041393</v>
+        <v>0.1111890341168191</v>
       </c>
       <c r="D34">
-        <v>-0.0005260309296346577</v>
+        <v>2.32007603651995</v>
       </c>
       <c r="E34">
-        <v>-0.8018660084640028</v>
+        <v>-0.5857137982348488</v>
       </c>
       <c r="F34">
-        <v>-0.8007110926345573</v>
+        <v>-0.2260365910423872</v>
       </c>
       <c r="G34">
-        <v>-0.6977662932861504</v>
+        <v>-0.6238769106320343</v>
       </c>
       <c r="H34">
-        <v>-0.2013714134183573</v>
+        <v>2.836777872354233</v>
       </c>
       <c r="I34">
-        <v>0.2961470224150702</v>
+        <v>-0.09340513149568608</v>
       </c>
       <c r="J34">
-        <v>-0.299174320061681</v>
+        <v>-0.3299754819599623</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1482,28 +1332,28 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.1115437440909233</v>
       </c>
       <c r="C35">
-        <v>-0.0005260309296346577</v>
+        <v>2.32007603651995</v>
       </c>
       <c r="D35">
-        <v>-0.8018660084640028</v>
+        <v>-0.5857137982348488</v>
       </c>
       <c r="E35">
-        <v>-0.8007110926345289</v>
+        <v>-0.2260365910423587</v>
       </c>
       <c r="F35">
-        <v>-0.6977662932861219</v>
+        <v>-0.6238769106320059</v>
       </c>
       <c r="G35">
-        <v>-0.2013714134183573</v>
+        <v>2.836777872354233</v>
       </c>
       <c r="H35">
-        <v>0.2961470224150844</v>
+        <v>-0.09340513149567187</v>
       </c>
       <c r="I35">
-        <v>-0.2991743200616526</v>
+        <v>-0.3299754819599339</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1511,25 +1361,25 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>2.320602067449584</v>
       </c>
       <c r="C36">
-        <v>-0.8018660084639744</v>
+        <v>-0.5857137982348204</v>
       </c>
       <c r="D36">
-        <v>-0.8007110926345573</v>
+        <v>-0.2260365910423872</v>
       </c>
       <c r="E36">
-        <v>-0.6977662932861504</v>
+        <v>-0.6238769106320343</v>
       </c>
       <c r="F36">
-        <v>-0.2013714134184141</v>
+        <v>2.836777872354176</v>
       </c>
       <c r="G36">
-        <v>0.2961470224151128</v>
+        <v>-0.09340513149564345</v>
       </c>
       <c r="H36">
-        <v>-0.2991743200616526</v>
+        <v>-0.3299754819599339</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1537,34 +1387,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.216152210229154</v>
       </c>
       <c r="C37">
-        <v>-0.0007110926345179625</v>
+        <v>0.5739634089576522</v>
       </c>
       <c r="D37">
-        <v>0.301240976081687</v>
+        <v>0.375130358735803</v>
       </c>
       <c r="E37">
-        <v>0.5986285865816396</v>
+        <v>3.63677787235423</v>
       </c>
       <c r="F37">
-        <v>0.5961470224150958</v>
+        <v>0.2065948685043395</v>
       </c>
       <c r="G37">
-        <v>0.0008256799383303814</v>
+        <v>-0.02997548195995092</v>
       </c>
       <c r="H37">
-        <v>0.2649614932497428</v>
+        <v>0.1956189500211281</v>
       </c>
       <c r="I37">
-        <v>0.6865566064729194</v>
+        <v>0.759344422700579</v>
       </c>
       <c r="J37">
-        <v>0.5370735779135885</v>
+        <v>0.4731888276964896</v>
       </c>
       <c r="K37">
-        <v>0.5908806866467131</v>
+        <v>0.5950343932175315</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1572,31 +1422,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>0.5746745015921702</v>
       </c>
       <c r="C38">
-        <v>0.299828063361091</v>
+        <v>0.3737174460152071</v>
       </c>
       <c r="D38">
-        <v>0.5986285865816536</v>
+        <v>3.636777872354244</v>
       </c>
       <c r="E38">
-        <v>0.5961470224150816</v>
+        <v>0.2065948685043253</v>
       </c>
       <c r="F38">
-        <v>0.0008256799383734581</v>
+        <v>-0.02997548195990785</v>
       </c>
       <c r="G38">
-        <v>0.264961493249686</v>
+        <v>0.1956189500210712</v>
       </c>
       <c r="H38">
-        <v>0.6865566064729336</v>
+        <v>0.7593444227005932</v>
       </c>
       <c r="I38">
-        <v>0.5370735779136169</v>
+        <v>0.473188827696518</v>
       </c>
       <c r="J38">
-        <v>0.5908806866467131</v>
+        <v>0.5950343932175315</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1604,28 +1454,28 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>0.07388938265411604</v>
       </c>
       <c r="C39">
-        <v>0.7986285865816427</v>
+        <v>3.836777872354233</v>
       </c>
       <c r="D39">
-        <v>0.5961470224150958</v>
+        <v>0.2065948685043395</v>
       </c>
       <c r="E39">
-        <v>-0.09917432006166393</v>
+        <v>-0.1299754819599452</v>
       </c>
       <c r="F39">
-        <v>0.2649614932497002</v>
+        <v>0.1956189500210854</v>
       </c>
       <c r="G39">
-        <v>0.6865566064729336</v>
+        <v>0.7593444227005932</v>
       </c>
       <c r="H39">
-        <v>0.1370735779136112</v>
+        <v>0.0731888276965123</v>
       </c>
       <c r="I39">
-        <v>0.1908806866466932</v>
+        <v>0.1950343932175116</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1633,25 +1483,25 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>3.03814928577259</v>
       </c>
       <c r="C40">
-        <v>0.7961470224151692</v>
+        <v>0.406594868504413</v>
       </c>
       <c r="D40">
-        <v>0.2008256799383044</v>
+        <v>0.1700245180400231</v>
       </c>
       <c r="E40">
-        <v>0.3649614932497087</v>
+        <v>0.295618950021094</v>
       </c>
       <c r="F40">
-        <v>0.6865566064729336</v>
+        <v>0.7593444227005932</v>
       </c>
       <c r="G40">
-        <v>0.4370735779136083</v>
+        <v>0.3731888276965095</v>
       </c>
       <c r="H40">
-        <v>0.4908806866467756</v>
+        <v>0.495034393217594</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1659,34 +1509,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>-0.3895521539107563</v>
       </c>
       <c r="C41">
-        <v>-0.5991743200616639</v>
+        <v>-0.6299754819599452</v>
       </c>
       <c r="D41">
-        <v>0.1643192017556316</v>
+        <v>0.09497665852701687</v>
       </c>
       <c r="E41">
-        <v>0.5866222934239147</v>
+        <v>0.6594101096515743</v>
       </c>
       <c r="F41">
-        <v>0.6372054155785913</v>
+        <v>0.5733206653614924</v>
       </c>
       <c r="G41">
-        <v>0.6910340102173225</v>
+        <v>0.6951877167881408</v>
       </c>
       <c r="H41">
-        <v>0.3659356850048283</v>
+        <v>0.2611588824676261</v>
       </c>
       <c r="I41">
-        <v>0.5014986564949311</v>
+        <v>1.9472310878663</v>
       </c>
       <c r="J41">
-        <v>0.2950397778752176</v>
+        <v>-0.05632797763011865</v>
       </c>
       <c r="K41">
-        <v>-0.1878071214384676</v>
+        <v>-0.1119095091543443</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1694,31 +1544,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>-0.0308011618982813</v>
       </c>
       <c r="C42">
-        <v>0.2599882530890767</v>
+        <v>0.1906457098604619</v>
       </c>
       <c r="D42">
-        <v>0.6869528964790135</v>
+        <v>0.7597407127066731</v>
       </c>
       <c r="E42">
-        <v>0.537478335329638</v>
+        <v>0.4735935851125391</v>
       </c>
       <c r="F42">
-        <v>0.4914237336710129</v>
+        <v>0.4955774402418314</v>
       </c>
       <c r="G42">
-        <v>0.1654280100687515</v>
+        <v>0.06065120753154929</v>
       </c>
       <c r="H42">
-        <v>0.5014986564950163</v>
+        <v>1.947231087866385</v>
       </c>
       <c r="I42">
-        <v>0.5950397778751864</v>
+        <v>0.2436720223698501</v>
       </c>
       <c r="J42">
-        <v>0.1121928785615438</v>
+        <v>0.1880904908456671</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1726,28 +1576,28 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>-0.06934254322861477</v>
       </c>
       <c r="C43">
-        <v>0.5047575476728952</v>
+        <v>0.5775453639005548</v>
       </c>
       <c r="D43">
-        <v>0.4393512295682456</v>
+        <v>0.3754664793511467</v>
       </c>
       <c r="E43">
-        <v>0.6075993913555919</v>
+        <v>0.6117530979264103</v>
       </c>
       <c r="F43">
-        <v>0.1990444516557091</v>
+        <v>0.09426764911850682</v>
       </c>
       <c r="G43">
-        <v>0.5162467886321593</v>
+        <v>1.961979220003528</v>
       </c>
       <c r="H43">
-        <v>0.6100436951628865</v>
+        <v>0.2586759396575502</v>
       </c>
       <c r="I43">
-        <v>0.1311538716182667</v>
+        <v>0.20705148390239</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1755,25 +1605,25 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>0.07278781622765959</v>
       </c>
       <c r="C44">
-        <v>0.1038176256527663</v>
+        <v>0.03993287543566743</v>
       </c>
       <c r="D44">
-        <v>1.025912298756495</v>
+        <v>1.030066005327314</v>
       </c>
       <c r="E44">
-        <v>0.5327916492894502</v>
+        <v>0.428014846752248</v>
       </c>
       <c r="F44">
-        <v>0.683870182429672</v>
+        <v>2.12960261380104</v>
       </c>
       <c r="G44">
-        <v>0.6945763472175344</v>
+        <v>0.3432085917121981</v>
       </c>
       <c r="H44">
-        <v>0.2198568693002017</v>
+        <v>0.2957544815843249</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1781,31 +1631,31 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.06388475021709888</v>
       </c>
       <c r="C45">
-        <v>0.6551736204080782</v>
+        <v>0.6593273269788966</v>
       </c>
       <c r="D45">
-        <v>0.7037970355254541</v>
+        <v>0.5990202329882519</v>
       </c>
       <c r="E45">
-        <v>0.7015684400103055</v>
+        <v>2.147300871381674</v>
       </c>
       <c r="F45">
-        <v>0.7429326054778471</v>
+        <v>0.3915648499725108</v>
       </c>
       <c r="G45">
-        <v>0.07688201541489548</v>
+        <v>0.1527796276990188</v>
       </c>
       <c r="H45">
-        <v>0.02104048533466596</v>
+        <v>0.7742993775953977</v>
       </c>
       <c r="I45">
-        <v>-0.03173094638775353</v>
+        <v>-1.497328907430728</v>
       </c>
       <c r="J45">
-        <v>-0.3298315316655191</v>
+        <v>-0.7587439714469471</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1813,28 +1663,28 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.004153706570818427</v>
       </c>
       <c r="C46">
-        <v>-0.006443902551353631</v>
+        <v>-0.1112207050885559</v>
       </c>
       <c r="D46">
-        <v>0.3006939113475227</v>
+        <v>1.746426342718891</v>
       </c>
       <c r="E46">
-        <v>0.3945758089843849</v>
+        <v>0.04320805347904866</v>
       </c>
       <c r="F46">
-        <v>-0.08767860464232058</v>
+        <v>-0.0117809923581973</v>
       </c>
       <c r="G46">
-        <v>0.02211534693543626</v>
+        <v>0.775374239196168</v>
       </c>
       <c r="H46">
-        <v>0.05094090366516468</v>
+        <v>-1.41465705737781</v>
       </c>
       <c r="I46">
-        <v>-0.1477535645244359</v>
+        <v>-0.5766660043058638</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1842,25 +1692,25 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>-0.1047768025372022</v>
       </c>
       <c r="C47">
-        <v>0.3029027033936985</v>
+        <v>1.748635134765067</v>
       </c>
       <c r="D47">
-        <v>0.3957812309082982</v>
+        <v>0.04441347540296192</v>
       </c>
       <c r="E47">
-        <v>-0.08357811879164956</v>
+        <v>-0.007680506507526275</v>
       </c>
       <c r="F47">
-        <v>0.01790301080829693</v>
+        <v>0.7711619030690287</v>
       </c>
       <c r="G47">
-        <v>0.05094090366512205</v>
+        <v>-1.414657057377852</v>
       </c>
       <c r="H47">
-        <v>-0.147753564524379</v>
+        <v>-0.5766660043058069</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1868,22 +1718,22 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1.445732431371368</v>
       </c>
       <c r="C48">
-        <v>0.1950397778752091</v>
+        <v>-0.1563279776301271</v>
       </c>
       <c r="D48">
-        <v>0.07752891479073298</v>
+        <v>0.1534265270748563</v>
       </c>
       <c r="E48">
-        <v>0.1852988316304902</v>
+        <v>0.9385577238912219</v>
       </c>
       <c r="F48">
-        <v>0.1331302265542291</v>
+        <v>-1.332467734488745</v>
       </c>
       <c r="G48">
-        <v>-0.1655497023459134</v>
+        <v>-0.5944621421273413</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1891,19 +1741,19 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.3513677555053363</v>
       </c>
       <c r="C49">
-        <v>-0.1878071214384391</v>
+        <v>-0.1119095091543159</v>
       </c>
       <c r="D49">
-        <v>0.2156739777684038</v>
+        <v>0.9689328700291355</v>
       </c>
       <c r="E49">
-        <v>0.2509409036651675</v>
+        <v>-1.214657057377807</v>
       </c>
       <c r="F49">
-        <v>-0.1477535645244501</v>
+        <v>-0.576666004305878</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1911,16 +1761,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>0.07589761228412328</v>
       </c>
       <c r="C50">
-        <v>0.09734540290881455</v>
+        <v>0.8506042951695463</v>
       </c>
       <c r="D50">
-        <v>0.03554018165549166</v>
+        <v>-1.430057779387483</v>
       </c>
       <c r="E50">
-        <v>-0.1939168710271133</v>
+        <v>-0.6228293108085412</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1928,13 +1778,13 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>0.7532588922607317</v>
       </c>
       <c r="C51">
-        <v>0.03572354685614698</v>
+        <v>-1.429874414186827</v>
       </c>
       <c r="D51">
-        <v>-0.1477535645244359</v>
+        <v>-0.5766660043058638</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1942,10 +1792,10 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-1.465597961042974</v>
       </c>
       <c r="C52">
-        <v>-0.01396949295705951</v>
+        <v>-0.4428819327384874</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1953,7 +1803,7 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>-0.4289124397814279</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/OPA/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/OPA/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -600,13 +600,19 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-1.082807286231812</v>
+        <v>-1.455833169388185</v>
       </c>
       <c r="C2">
-        <v>3.79510699602109</v>
+        <v>4.395106996021084</v>
       </c>
       <c r="D2">
         <v>-3.099081613727349</v>
+      </c>
+      <c r="E2">
+        <v>-2.192644404801669</v>
+      </c>
+      <c r="F2">
+        <v>-1.336767165393482</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -614,16 +620,25 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.195106996021081</v>
+        <v>-3.699081613727358</v>
       </c>
       <c r="C3">
-        <v>-2.699081613727358</v>
+        <v>-2.292644404801692</v>
       </c>
       <c r="D3">
-        <v>-2.443706631981499</v>
+        <v>-0.9367671653934908</v>
       </c>
       <c r="E3">
-        <v>-2.523758253012303</v>
+        <v>-1.843706631981505</v>
+      </c>
+      <c r="F3">
+        <v>-2.123758253012312</v>
+      </c>
+      <c r="G3">
+        <v>-2.50855605500324</v>
+      </c>
+      <c r="H3">
+        <v>-2.068890451524708</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -631,13 +646,19 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-3.299081613727352</v>
+        <v>-1.536767165393485</v>
       </c>
       <c r="C4">
-        <v>-2.543706631981508</v>
+        <v>-2.643706631981502</v>
       </c>
       <c r="D4">
-        <v>-2.123758253012312</v>
+        <v>-2.223758253012321</v>
+      </c>
+      <c r="E4">
+        <v>-2.50855605500324</v>
+      </c>
+      <c r="F4">
+        <v>-1.668890451524717</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -645,16 +666,25 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-3.443706631981499</v>
+        <v>-3.123758253012312</v>
       </c>
       <c r="C5">
-        <v>-2.223758253012321</v>
+        <v>-2.608556055003234</v>
       </c>
       <c r="D5">
-        <v>-1.468890451524714</v>
+        <v>-1.768890451524726</v>
       </c>
       <c r="E5">
-        <v>-1.01127304405648</v>
+        <v>0.2935184465012383</v>
+      </c>
+      <c r="F5">
+        <v>-1.311273044056463</v>
+      </c>
+      <c r="G5">
+        <v>-1.188687706043197</v>
+      </c>
+      <c r="H5">
+        <v>-1.092365984063818</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -662,13 +692,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-2.023758253012332</v>
+        <v>-1.568890451524737</v>
       </c>
       <c r="C6">
-        <v>-1.168890451524731</v>
+        <v>0.3935184465012611</v>
       </c>
       <c r="D6">
-        <v>-0.5112730440564659</v>
+        <v>-1.01127304405648</v>
+      </c>
+      <c r="E6">
+        <v>-0.48868770604318</v>
+      </c>
+      <c r="F6">
+        <v>-0.592365984063804</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -676,16 +712,25 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1.268890451524726</v>
+        <v>-1.111273044056475</v>
       </c>
       <c r="C7">
-        <v>0.5887269559435282</v>
+        <v>-0.48868770604318</v>
       </c>
       <c r="D7">
-        <v>-0.592365984063804</v>
+        <v>0.5076340159361901</v>
       </c>
       <c r="E7">
-        <v>-0.394327589997701</v>
+        <v>-1.229569560816685</v>
+      </c>
+      <c r="F7">
+        <v>-0.05139895868815292</v>
+      </c>
+      <c r="G7">
+        <v>-0.5943275899977041</v>
+      </c>
+      <c r="H7">
+        <v>-0.5389702899302902</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -693,13 +738,19 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.288726955943531</v>
+        <v>0.2076340159361929</v>
       </c>
       <c r="C8">
-        <v>-0.7923659840638071</v>
+        <v>-0.4295695608166878</v>
       </c>
       <c r="D8">
-        <v>-0.1943275899976979</v>
+        <v>-0.251398958688156</v>
+      </c>
+      <c r="E8">
+        <v>-0.394327589997701</v>
+      </c>
+      <c r="F8">
+        <v>-0.3389702899302871</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -707,16 +758,25 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.192365984063813</v>
+        <v>0.3486010413118381</v>
       </c>
       <c r="C9">
         <v>-0.09432758999769009</v>
       </c>
       <c r="D9">
+        <v>-0.2389702899302792</v>
+      </c>
+      <c r="E9">
         <v>2.703281951233038</v>
       </c>
-      <c r="E9">
+      <c r="F9">
+        <v>0.355740905257804</v>
+      </c>
+      <c r="G9">
         <v>0.050029794240118</v>
+      </c>
+      <c r="H9">
+        <v>-0.05850117914869202</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -724,13 +784,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.894327589997687</v>
+        <v>-1.038970289930276</v>
       </c>
       <c r="C10">
-        <v>2.103281951233043</v>
+        <v>1.803281951233046</v>
       </c>
       <c r="D10">
-        <v>0.450029794240109</v>
+        <v>-0.2442590947421905</v>
+      </c>
+      <c r="E10">
+        <v>0.1500297942400981</v>
+      </c>
+      <c r="F10">
+        <v>0.341498820851299</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -738,16 +804,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.7038955332017736</v>
+        <v>-1.64364551277346</v>
       </c>
       <c r="C11">
-        <v>-0.3499702057599163</v>
+        <v>-1.549970205759919</v>
       </c>
       <c r="D11">
-        <v>2.429543206172341</v>
+        <v>-0.4585011791487263</v>
       </c>
       <c r="E11">
-        <v>-0.157269272787175</v>
+        <v>2.429543206172383</v>
+      </c>
+      <c r="F11">
+        <v>-0.1572692727871889</v>
+      </c>
+      <c r="G11">
+        <v>-0.1873619746532711</v>
+      </c>
+      <c r="H11">
+        <v>0.143105731708161</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -755,13 +830,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.6436330727019877</v>
+        <v>-0.7521640460907977</v>
       </c>
       <c r="C12">
-        <v>2.529543206172349</v>
+        <v>1.578450090995745</v>
       </c>
       <c r="D12">
-        <v>0.04273072721287008</v>
+        <v>-0.05726927278718086</v>
+      </c>
+      <c r="E12">
+        <v>0.012638025346704</v>
+      </c>
+      <c r="F12">
+        <v>0.343105731708206</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -769,16 +850,25 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>2.538335007403873</v>
+        <v>-0.04847747155565685</v>
       </c>
       <c r="C13">
-        <v>-0.05726927278715199</v>
+        <v>-0.8873619746532877</v>
       </c>
       <c r="D13">
-        <v>2.245755750114029</v>
+        <v>0.2431057317081839</v>
       </c>
       <c r="E13">
-        <v>1.43595737376981</v>
+        <v>2.245755750114043</v>
+      </c>
+      <c r="F13">
+        <v>1.435957373769768</v>
+      </c>
+      <c r="G13">
+        <v>1.326269182513372</v>
+      </c>
+      <c r="H13">
+        <v>1.253600868878962</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -786,13 +876,19 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.4455697022713418</v>
+        <v>-0.1451946977760059</v>
       </c>
       <c r="C14">
-        <v>1.745755750114085</v>
+        <v>1.739271905507678</v>
       </c>
       <c r="D14">
-        <v>1.035957373769805</v>
+        <v>0.9359573737698237</v>
+      </c>
+      <c r="E14">
+        <v>0.9262691825133376</v>
+      </c>
+      <c r="F14">
+        <v>0.8536008688789569</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -800,16 +896,25 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>2.04779907455088</v>
+        <v>1.238000698206619</v>
       </c>
       <c r="C15">
-        <v>1.13595737376977</v>
+        <v>1.126269182513355</v>
       </c>
       <c r="D15">
-        <v>0.953600868878965</v>
+        <v>0.9536008688789219</v>
       </c>
       <c r="E15">
+        <v>0.4989725115672317</v>
+      </c>
+      <c r="F15">
         <v>0.5275698783428595</v>
+      </c>
+      <c r="G15">
+        <v>0.5944274920490922</v>
+      </c>
+      <c r="H15">
+        <v>0.5440756089394938</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -817,13 +922,19 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.3317422804875889</v>
+        <v>0.1493857755967411</v>
       </c>
       <c r="C16">
-        <v>0.2454735439491315</v>
+        <v>-0.2505223177222859</v>
       </c>
       <c r="D16">
-        <v>-0.1724301216571718</v>
+        <v>-0.1805574465869739</v>
+      </c>
+      <c r="E16">
+        <v>-0.1474485694923402</v>
+      </c>
+      <c r="F16">
+        <v>-0.1559243910605375</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -831,16 +942,25 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.3481858052317079</v>
+        <v>-0.07784518530439755</v>
       </c>
       <c r="C17">
-        <v>-0.1724301216571291</v>
+        <v>-0.1055725079509386</v>
       </c>
       <c r="D17">
-        <v>-0.2559243910605034</v>
+        <v>-0.1559243910604948</v>
       </c>
       <c r="E17">
-        <v>-0.1936072881632214</v>
+        <v>0.2534501639880773</v>
+      </c>
+      <c r="F17">
+        <v>-0.3280139322004771</v>
+      </c>
+      <c r="G17">
+        <v>-0.1936072881632497</v>
+      </c>
+      <c r="H17">
+        <v>0.07500108332972388</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -848,19 +968,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-0.07082505861122002</v>
+        <v>-0.05431932801458572</v>
       </c>
       <c r="C18">
-        <v>-0.05592439106047209</v>
+        <v>0.3535609170761376</v>
       </c>
       <c r="D18">
-        <v>0.006392711836824105</v>
+        <v>-0.1280139322004459</v>
       </c>
       <c r="E18">
-        <v>0.2750010833296983</v>
+        <v>0.006392711836724629</v>
       </c>
       <c r="F18">
+        <v>0.2750010833297694</v>
+      </c>
+      <c r="G18">
+        <v>-0.2183109759107538</v>
+      </c>
+      <c r="H18">
         <v>-0.2673551286853382</v>
+      </c>
+      <c r="I18">
+        <v>-0.0332079648755581</v>
+      </c>
+      <c r="J18">
+        <v>0.6543961430744929</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -868,16 +1000,25 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-0.05782809138668199</v>
+        <v>-0.1299176325266558</v>
       </c>
       <c r="C19">
         <v>0.006392711836767262</v>
       </c>
       <c r="D19">
-        <v>0.2750010833296699</v>
+        <v>0.2750010833297125</v>
       </c>
       <c r="E19">
-        <v>-0.267355128685324</v>
+        <v>-0.2183109759106969</v>
+      </c>
+      <c r="F19">
+        <v>-0.2673551286853666</v>
+      </c>
+      <c r="G19">
+        <v>-0.0332079648755581</v>
+      </c>
+      <c r="H19">
+        <v>0.6543961430745071</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -885,25 +1026,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.05507629212061715</v>
+        <v>0.3236846636135624</v>
       </c>
       <c r="C20">
-        <v>0.3250010833297097</v>
+        <v>-0.1683138701435638</v>
       </c>
       <c r="D20">
         <v>-0.2173551286853268</v>
       </c>
       <c r="E20">
-        <v>0.006805710559603995</v>
+        <v>0.01679203512438221</v>
       </c>
       <c r="F20">
-        <v>-0.8832529440181669</v>
+        <v>0.7043961430745043</v>
       </c>
       <c r="G20">
-        <v>1.160136620983778</v>
+        <v>-0.8832529440180958</v>
       </c>
       <c r="H20">
-        <v>0.3399999999999722</v>
+        <v>0.3151905115345954</v>
+      </c>
+      <c r="I20">
+        <v>0.4400000000000432</v>
+      </c>
+      <c r="J20">
+        <v>0.1591932259160699</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -911,22 +1058,25 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.2759501449010742</v>
+        <v>-0.2664060671139623</v>
       </c>
       <c r="C21">
-        <v>-0.2673551286853666</v>
+        <v>-0.03320796487561495</v>
       </c>
       <c r="D21">
-        <v>-0.03319428944041647</v>
+        <v>0.6543961430744645</v>
       </c>
       <c r="E21">
-        <v>-0.9232529440181447</v>
+        <v>-0.9232529440181163</v>
       </c>
       <c r="F21">
-        <v>1.120136620983715</v>
+        <v>0.2751905115346176</v>
       </c>
       <c r="G21">
-        <v>0.3000000000000227</v>
+        <v>0.3999999999999801</v>
+      </c>
+      <c r="H21">
+        <v>0.1191932259161205</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -934,31 +1084,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.07282450347476299</v>
+        <v>0.9945757752345941</v>
       </c>
       <c r="C22">
-        <v>0.2669799775931949</v>
+        <v>-0.6230786769845049</v>
       </c>
       <c r="D22">
-        <v>-0.6232529440181334</v>
+        <v>0.575190511534629</v>
       </c>
       <c r="E22">
-        <v>1.320136620983732</v>
+        <v>0.5999999999999972</v>
       </c>
       <c r="F22">
-        <v>0.4999999999999545</v>
+        <v>0.3191932259160523</v>
       </c>
       <c r="G22">
-        <v>0.610478045462429</v>
+        <v>1.90000000000004</v>
       </c>
       <c r="H22">
-        <v>1.899999999999997</v>
+        <v>-0.1506210268478014</v>
       </c>
       <c r="I22">
-        <v>1.35861733436488</v>
+        <v>-0.2016697143561283</v>
       </c>
       <c r="J22">
-        <v>-0.1418773066947807</v>
+        <v>-0.2509349841733699</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -966,28 +1116,28 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.2693083480624097</v>
+        <v>-0.6207503065152902</v>
       </c>
       <c r="C23">
-        <v>-0.623252944018176</v>
+        <v>0.5751905115345863</v>
       </c>
       <c r="D23">
-        <v>1.320136620983732</v>
+        <v>0.5999999999999972</v>
       </c>
       <c r="E23">
-        <v>0.499999999999983</v>
+        <v>0.3191932259160807</v>
       </c>
       <c r="F23">
-        <v>0.6104780454624148</v>
+        <v>1.900000000000026</v>
       </c>
       <c r="G23">
-        <v>1.899999999999983</v>
+        <v>-0.1506210268478156</v>
       </c>
       <c r="H23">
-        <v>1.358617334364894</v>
+        <v>-0.2016697143561141</v>
       </c>
       <c r="I23">
-        <v>-0.1418773066947949</v>
+        <v>-0.2509349841733841</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -995,25 +1145,25 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.5245436646745385</v>
+        <v>0.6738997908782238</v>
       </c>
       <c r="C24">
-        <v>1.42013662098374</v>
+        <v>0.7000000000000057</v>
       </c>
       <c r="D24">
-        <v>0.5999999999999488</v>
+        <v>0.4191932259160466</v>
       </c>
       <c r="E24">
-        <v>0.7104780454623523</v>
+        <v>1.999999999999963</v>
       </c>
       <c r="F24">
-        <v>2.000000000000006</v>
+        <v>-0.0506210268477929</v>
       </c>
       <c r="G24">
-        <v>1.458617334364845</v>
+        <v>-0.1016697143561625</v>
       </c>
       <c r="H24">
-        <v>-0.0418773066947864</v>
+        <v>-0.1509349841733756</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1021,34 +1171,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>1.419056117241908</v>
+        <v>0.6989194962581735</v>
       </c>
       <c r="C25">
-        <v>0.5999999999999914</v>
+        <v>0.4191932259160893</v>
       </c>
       <c r="D25">
-        <v>0.7103581047353629</v>
+        <v>1.999880059272974</v>
       </c>
       <c r="E25">
-        <v>2.000000000000006</v>
+        <v>-0.0506210268477929</v>
       </c>
       <c r="F25">
-        <v>1.458617334364845</v>
+        <v>-0.1016697143561625</v>
       </c>
       <c r="G25">
-        <v>-0.04187730669482903</v>
+        <v>-0.1509349841734182</v>
       </c>
       <c r="H25">
-        <v>-0.1015300358914994</v>
+        <v>1.199999999999992</v>
       </c>
       <c r="I25">
-        <v>1.199999999999992</v>
+        <v>0.3136677548153841</v>
       </c>
       <c r="J25">
-        <v>0.3136677548153841</v>
+        <v>0.1018155905464795</v>
       </c>
       <c r="K25">
-        <v>-0.9790448517306634</v>
+        <v>0.1027921018736606</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1056,31 +1206,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0.3</v>
+        <v>0.1191932259160978</v>
       </c>
       <c r="C26">
-        <v>0.4104780454623892</v>
+        <v>1.7</v>
       </c>
       <c r="D26">
-        <v>1.7</v>
+        <v>-0.3506210268477986</v>
       </c>
       <c r="E26">
-        <v>1.158617334364854</v>
+        <v>-0.401669714356154</v>
       </c>
       <c r="F26">
-        <v>-0.3418773066947779</v>
+        <v>-0.4509349841733671</v>
       </c>
       <c r="G26">
-        <v>-0.4015300358914909</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="H26">
-        <v>0.8999999999999999</v>
+        <v>0.01366775481539262</v>
       </c>
       <c r="I26">
-        <v>0.01366775481539262</v>
+        <v>-0.198184409453512</v>
       </c>
       <c r="J26">
-        <v>-1.279044851730669</v>
+        <v>-0.1972078981263451</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1088,28 +1238,28 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0.358393083582655</v>
+        <v>1.647915038120266</v>
       </c>
       <c r="C27">
-        <v>1.650000000000011</v>
+        <v>-0.4006210268477872</v>
       </c>
       <c r="D27">
-        <v>1.108617334364837</v>
+        <v>-0.451669714356171</v>
       </c>
       <c r="E27">
-        <v>-0.3918773066947523</v>
+        <v>-0.5009349841733415</v>
       </c>
       <c r="F27">
-        <v>-0.4515300358914796</v>
+        <v>0.8500000000000114</v>
       </c>
       <c r="G27">
-        <v>0.8500000000000114</v>
+        <v>-0.03633224518459599</v>
       </c>
       <c r="H27">
-        <v>-0.03633224518462441</v>
+        <v>-0.248184409453529</v>
       </c>
       <c r="I27">
-        <v>-1.329044851730686</v>
+        <v>-0.2472078981263621</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1117,25 +1267,25 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>1.6</v>
+        <v>-0.4506210268477986</v>
       </c>
       <c r="C28">
-        <v>0.958617334364854</v>
+        <v>-0.6016697143561539</v>
       </c>
       <c r="D28">
-        <v>-0.4418773066947779</v>
+        <v>-0.5509349841733671</v>
       </c>
       <c r="E28">
-        <v>-0.6015300358914909</v>
+        <v>0.7</v>
       </c>
       <c r="F28">
-        <v>0.7</v>
+        <v>-0.1863322451846073</v>
       </c>
       <c r="G28">
-        <v>-0.1863322451846073</v>
+        <v>-0.398184409453512</v>
       </c>
       <c r="H28">
-        <v>-1.479044851730669</v>
+        <v>-0.397207898126345</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1143,34 +1293,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>1.259006228917627</v>
+        <v>-0.3012808198033805</v>
       </c>
       <c r="C29">
-        <v>-0.2418773066948177</v>
+        <v>-0.3509349841734068</v>
       </c>
       <c r="D29">
-        <v>-0.3014983896731418</v>
+        <v>1.000031646218349</v>
       </c>
       <c r="E29">
-        <v>1.000000000000031</v>
+        <v>0.1136677548154239</v>
       </c>
       <c r="F29">
-        <v>0.1136677548154097</v>
+        <v>-0.09818440945349494</v>
       </c>
       <c r="G29">
-        <v>-1.179044851730709</v>
+        <v>-0.09720789812638486</v>
       </c>
       <c r="H29">
-        <v>0.1108804844682112</v>
+        <v>-0.0006632596227120757</v>
       </c>
       <c r="I29">
-        <v>2.320076036519907</v>
+        <v>-0.0005260309296772903</v>
       </c>
       <c r="J29">
-        <v>-0.585713798234792</v>
+        <v>-0.801866008463946</v>
       </c>
       <c r="K29">
-        <v>-0.2260365910423587</v>
+        <v>-0.8007110926345289</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1178,31 +1328,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.2931203842524468</v>
+        <v>-0.402178061731036</v>
       </c>
       <c r="C30">
-        <v>-0.3519923954776654</v>
+        <v>0.9495376404138256</v>
       </c>
       <c r="D30">
-        <v>0.9510000000000389</v>
+        <v>0.06466775481543152</v>
       </c>
       <c r="E30">
-        <v>0.06466775481538889</v>
+        <v>-0.1471844094535157</v>
       </c>
       <c r="F30">
-        <v>-1.228044851730673</v>
+        <v>-0.1462078981263488</v>
       </c>
       <c r="G30">
-        <v>0.06188048446821881</v>
+        <v>-0.04966325962270446</v>
       </c>
       <c r="H30">
-        <v>2.271076036519943</v>
+        <v>-0.04952603092964125</v>
       </c>
       <c r="I30">
-        <v>-0.6347137982347844</v>
+        <v>-0.8508660084639383</v>
       </c>
       <c r="J30">
-        <v>-0.2750365910423795</v>
+        <v>-0.8497110926345497</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1210,28 +1360,28 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.3011952021863773</v>
+        <v>1.000334833705114</v>
       </c>
       <c r="C31">
-        <v>0.9999999999999887</v>
+        <v>0.1136677548153813</v>
       </c>
       <c r="D31">
-        <v>0.1136677548153813</v>
+        <v>-0.09818440945352336</v>
       </c>
       <c r="E31">
-        <v>-1.179044851730652</v>
+        <v>-0.09720789812632802</v>
       </c>
       <c r="F31">
-        <v>0.1108804844681686</v>
+        <v>-0.0006632596227547083</v>
       </c>
       <c r="G31">
-        <v>2.320076036519978</v>
+        <v>-0.000526030929606236</v>
       </c>
       <c r="H31">
-        <v>-0.5857137982348204</v>
+        <v>-0.8018660084639744</v>
       </c>
       <c r="I31">
-        <v>-0.2260365910424156</v>
+        <v>-0.8007110926345857</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1239,25 +1389,25 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.7</v>
+        <v>-1.586332245184607</v>
       </c>
       <c r="C32">
-        <v>0.4136677548153926</v>
+        <v>0.201815590546488</v>
       </c>
       <c r="D32">
-        <v>-1.079044851730669</v>
+        <v>0.002792101873654973</v>
       </c>
       <c r="E32">
-        <v>0.01088048446822254</v>
+        <v>-0.1006632596227007</v>
       </c>
       <c r="F32">
-        <v>2.220076036519961</v>
+        <v>-0.1005260309296233</v>
       </c>
       <c r="G32">
-        <v>-0.685713798234809</v>
+        <v>-0.901866008463963</v>
       </c>
       <c r="H32">
-        <v>-0.3260365910423758</v>
+        <v>-0.900711092634546</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1265,34 +1415,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0.2118521642689046</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>-1.079044851730686</v>
+        <v>0.002792101873637876</v>
       </c>
       <c r="D33">
-        <v>0.1111487214409834</v>
+        <v>-0.0003950226499398468</v>
       </c>
       <c r="E33">
-        <v>2.32007603651995</v>
+        <v>-0.0005260309296346577</v>
       </c>
       <c r="F33">
-        <v>-0.5857137982348204</v>
+        <v>-0.8018660084639744</v>
       </c>
       <c r="G33">
-        <v>-0.2260365910424156</v>
+        <v>-0.8007110926345857</v>
       </c>
       <c r="H33">
-        <v>-0.6238769106319917</v>
+        <v>-0.6977662932861077</v>
       </c>
       <c r="I33">
-        <v>2.836777872354205</v>
+        <v>-0.2013714134183857</v>
       </c>
       <c r="J33">
-        <v>-0.09340513149564345</v>
+        <v>0.2961470224151128</v>
       </c>
       <c r="K33">
-        <v>-0.3299754819599339</v>
+        <v>-0.2991743200616526</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1300,31 +1450,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-1.081836953604324</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>0.1111890341168191</v>
+        <v>-0.0003547099741041393</v>
       </c>
       <c r="D34">
-        <v>2.32007603651995</v>
+        <v>-0.0005260309296346577</v>
       </c>
       <c r="E34">
-        <v>-0.5857137982348488</v>
+        <v>-0.8018660084640028</v>
       </c>
       <c r="F34">
-        <v>-0.2260365910423872</v>
+        <v>-0.8007110926345573</v>
       </c>
       <c r="G34">
-        <v>-0.6238769106320343</v>
+        <v>-0.6977662932861504</v>
       </c>
       <c r="H34">
-        <v>2.836777872354233</v>
+        <v>-0.2013714134183573</v>
       </c>
       <c r="I34">
-        <v>-0.09340513149568608</v>
+        <v>0.2961470224150702</v>
       </c>
       <c r="J34">
-        <v>-0.3299754819599623</v>
+        <v>-0.299174320061681</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1332,28 +1482,28 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0.1115437440909233</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>2.32007603651995</v>
+        <v>-0.0005260309296346577</v>
       </c>
       <c r="D35">
-        <v>-0.5857137982348488</v>
+        <v>-0.8018660084640028</v>
       </c>
       <c r="E35">
-        <v>-0.2260365910423587</v>
+        <v>-0.8007110926345289</v>
       </c>
       <c r="F35">
-        <v>-0.6238769106320059</v>
+        <v>-0.6977662932861219</v>
       </c>
       <c r="G35">
-        <v>2.836777872354233</v>
+        <v>-0.2013714134183573</v>
       </c>
       <c r="H35">
-        <v>-0.09340513149567187</v>
+        <v>0.2961470224150844</v>
       </c>
       <c r="I35">
-        <v>-0.3299754819599339</v>
+        <v>-0.2991743200616526</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1361,25 +1511,25 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>2.320602067449584</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>-0.5857137982348204</v>
+        <v>-0.8018660084639744</v>
       </c>
       <c r="D36">
-        <v>-0.2260365910423872</v>
+        <v>-0.8007110926345573</v>
       </c>
       <c r="E36">
-        <v>-0.6238769106320343</v>
+        <v>-0.6977662932861504</v>
       </c>
       <c r="F36">
-        <v>2.836777872354176</v>
+        <v>-0.2013714134184141</v>
       </c>
       <c r="G36">
-        <v>-0.09340513149564345</v>
+        <v>0.2961470224151128</v>
       </c>
       <c r="H36">
-        <v>-0.3299754819599339</v>
+        <v>-0.2991743200616526</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1387,34 +1537,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0.216152210229154</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0.5739634089576522</v>
+        <v>-0.0007110926345179625</v>
       </c>
       <c r="D37">
-        <v>0.375130358735803</v>
+        <v>0.301240976081687</v>
       </c>
       <c r="E37">
-        <v>3.63677787235423</v>
+        <v>0.5986285865816396</v>
       </c>
       <c r="F37">
-        <v>0.2065948685043395</v>
+        <v>0.5961470224150958</v>
       </c>
       <c r="G37">
-        <v>-0.02997548195995092</v>
+        <v>0.0008256799383303814</v>
       </c>
       <c r="H37">
-        <v>0.1956189500211281</v>
+        <v>0.2649614932497428</v>
       </c>
       <c r="I37">
-        <v>0.759344422700579</v>
+        <v>0.6865566064729194</v>
       </c>
       <c r="J37">
-        <v>0.4731888276964896</v>
+        <v>0.5370735779135885</v>
       </c>
       <c r="K37">
-        <v>0.5950343932175315</v>
+        <v>0.5908806866467131</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1422,31 +1572,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0.5746745015921702</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0.3737174460152071</v>
+        <v>0.299828063361091</v>
       </c>
       <c r="D38">
-        <v>3.636777872354244</v>
+        <v>0.5986285865816536</v>
       </c>
       <c r="E38">
-        <v>0.2065948685043253</v>
+        <v>0.5961470224150816</v>
       </c>
       <c r="F38">
-        <v>-0.02997548195990785</v>
+        <v>0.0008256799383734581</v>
       </c>
       <c r="G38">
-        <v>0.1956189500210712</v>
+        <v>0.264961493249686</v>
       </c>
       <c r="H38">
-        <v>0.7593444227005932</v>
+        <v>0.6865566064729336</v>
       </c>
       <c r="I38">
-        <v>0.473188827696518</v>
+        <v>0.5370735779136169</v>
       </c>
       <c r="J38">
-        <v>0.5950343932175315</v>
+        <v>0.5908806866467131</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1454,28 +1604,28 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0.07388938265411604</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>3.836777872354233</v>
+        <v>0.7986285865816427</v>
       </c>
       <c r="D39">
-        <v>0.2065948685043395</v>
+        <v>0.5961470224150958</v>
       </c>
       <c r="E39">
-        <v>-0.1299754819599452</v>
+        <v>-0.09917432006166393</v>
       </c>
       <c r="F39">
-        <v>0.1956189500210854</v>
+        <v>0.2649614932497002</v>
       </c>
       <c r="G39">
-        <v>0.7593444227005932</v>
+        <v>0.6865566064729336</v>
       </c>
       <c r="H39">
-        <v>0.0731888276965123</v>
+        <v>0.1370735779136112</v>
       </c>
       <c r="I39">
-        <v>0.1950343932175116</v>
+        <v>0.1908806866466932</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1483,25 +1633,25 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>3.03814928577259</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0.406594868504413</v>
+        <v>0.7961470224151692</v>
       </c>
       <c r="D40">
-        <v>0.1700245180400231</v>
+        <v>0.2008256799383044</v>
       </c>
       <c r="E40">
-        <v>0.295618950021094</v>
+        <v>0.3649614932497087</v>
       </c>
       <c r="F40">
-        <v>0.7593444227005932</v>
+        <v>0.6865566064729336</v>
       </c>
       <c r="G40">
-        <v>0.3731888276965095</v>
+        <v>0.4370735779136083</v>
       </c>
       <c r="H40">
-        <v>0.495034393217594</v>
+        <v>0.4908806866467756</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1509,34 +1659,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.3895521539107563</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>-0.6299754819599452</v>
+        <v>-0.5991743200616639</v>
       </c>
       <c r="D41">
-        <v>0.09497665852701687</v>
+        <v>0.1643192017556316</v>
       </c>
       <c r="E41">
-        <v>0.6594101096515743</v>
+        <v>0.5866222934239147</v>
       </c>
       <c r="F41">
-        <v>0.5733206653614924</v>
+        <v>0.6372054155785913</v>
       </c>
       <c r="G41">
-        <v>0.6951877167881408</v>
+        <v>0.6910340102173225</v>
       </c>
       <c r="H41">
-        <v>0.2611588824676261</v>
+        <v>0.3659356850048283</v>
       </c>
       <c r="I41">
-        <v>1.9472310878663</v>
+        <v>0.5014986564949311</v>
       </c>
       <c r="J41">
-        <v>-0.05632797763011865</v>
+        <v>0.2950397778752176</v>
       </c>
       <c r="K41">
-        <v>-0.1119095091543443</v>
+        <v>-0.1878071214384676</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1544,31 +1694,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>-0.0308011618982813</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>0.1906457098604619</v>
+        <v>0.2599882530890767</v>
       </c>
       <c r="D42">
-        <v>0.7597407127066731</v>
+        <v>0.6869528964790135</v>
       </c>
       <c r="E42">
-        <v>0.4735935851125391</v>
+        <v>0.537478335329638</v>
       </c>
       <c r="F42">
-        <v>0.4955774402418314</v>
+        <v>0.4914237336710129</v>
       </c>
       <c r="G42">
-        <v>0.06065120753154929</v>
+        <v>0.1654280100687515</v>
       </c>
       <c r="H42">
-        <v>1.947231087866385</v>
+        <v>0.5014986564950163</v>
       </c>
       <c r="I42">
-        <v>0.2436720223698501</v>
+        <v>0.5950397778751864</v>
       </c>
       <c r="J42">
-        <v>0.1880904908456671</v>
+        <v>0.1121928785615438</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1576,28 +1726,28 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.06934254322861477</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0.5775453639005548</v>
+        <v>0.5047575476728952</v>
       </c>
       <c r="D43">
-        <v>0.3754664793511467</v>
+        <v>0.4393512295682456</v>
       </c>
       <c r="E43">
-        <v>0.6117530979264103</v>
+        <v>0.6075993913555919</v>
       </c>
       <c r="F43">
-        <v>0.09426764911850682</v>
+        <v>0.1990444516557091</v>
       </c>
       <c r="G43">
-        <v>1.961979220003528</v>
+        <v>0.5162467886321593</v>
       </c>
       <c r="H43">
-        <v>0.2586759396575502</v>
+        <v>0.6100436951628865</v>
       </c>
       <c r="I43">
-        <v>0.20705148390239</v>
+        <v>0.1311538716182667</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1605,25 +1755,25 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>0.07278781622765959</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>0.03993287543566743</v>
+        <v>0.1038176256527663</v>
       </c>
       <c r="D44">
-        <v>1.030066005327314</v>
+        <v>1.025912298756495</v>
       </c>
       <c r="E44">
-        <v>0.428014846752248</v>
+        <v>0.5327916492894502</v>
       </c>
       <c r="F44">
-        <v>2.12960261380104</v>
+        <v>0.683870182429672</v>
       </c>
       <c r="G44">
-        <v>0.3432085917121981</v>
+        <v>0.6945763472175344</v>
       </c>
       <c r="H44">
-        <v>0.2957544815843249</v>
+        <v>0.2198568693002017</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1631,31 +1781,31 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>-0.06388475021709888</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0.6593273269788966</v>
+        <v>0.6551736204080782</v>
       </c>
       <c r="D45">
-        <v>0.5990202329882519</v>
+        <v>0.7037970355254541</v>
       </c>
       <c r="E45">
-        <v>2.147300871381674</v>
+        <v>0.7015684400103055</v>
       </c>
       <c r="F45">
-        <v>0.3915648499725108</v>
+        <v>0.7429326054778471</v>
       </c>
       <c r="G45">
-        <v>0.1527796276990188</v>
+        <v>0.07688201541489548</v>
       </c>
       <c r="H45">
-        <v>0.7742993775953977</v>
+        <v>0.02104048533466596</v>
       </c>
       <c r="I45">
-        <v>-1.497328907430728</v>
+        <v>-0.03173094638775353</v>
       </c>
       <c r="J45">
-        <v>-0.7587439714469471</v>
+        <v>-0.3298315316655191</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1663,28 +1813,28 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0.004153706570818427</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>-0.1112207050885559</v>
+        <v>-0.006443902551353631</v>
       </c>
       <c r="D46">
-        <v>1.746426342718891</v>
+        <v>0.3006939113475227</v>
       </c>
       <c r="E46">
-        <v>0.04320805347904866</v>
+        <v>0.3945758089843849</v>
       </c>
       <c r="F46">
-        <v>-0.0117809923581973</v>
+        <v>-0.08767860464232058</v>
       </c>
       <c r="G46">
-        <v>0.775374239196168</v>
+        <v>0.02211534693543626</v>
       </c>
       <c r="H46">
-        <v>-1.41465705737781</v>
+        <v>0.05094090366516468</v>
       </c>
       <c r="I46">
-        <v>-0.5766660043058638</v>
+        <v>-0.1477535645244359</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1692,25 +1842,25 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.1047768025372022</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>1.748635134765067</v>
+        <v>0.3029027033936985</v>
       </c>
       <c r="D47">
-        <v>0.04441347540296192</v>
+        <v>0.3957812309082982</v>
       </c>
       <c r="E47">
-        <v>-0.007680506507526275</v>
+        <v>-0.08357811879164956</v>
       </c>
       <c r="F47">
-        <v>0.7711619030690287</v>
+        <v>0.01790301080829693</v>
       </c>
       <c r="G47">
-        <v>-1.414657057377852</v>
+        <v>0.05094090366512205</v>
       </c>
       <c r="H47">
-        <v>-0.5766660043058069</v>
+        <v>-0.147753564524379</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1718,22 +1868,22 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>1.445732431371368</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>-0.1563279776301271</v>
+        <v>0.1950397778752091</v>
       </c>
       <c r="D48">
-        <v>0.1534265270748563</v>
+        <v>0.07752891479073298</v>
       </c>
       <c r="E48">
-        <v>0.9385577238912219</v>
+        <v>0.1852988316304902</v>
       </c>
       <c r="F48">
-        <v>-1.332467734488745</v>
+        <v>0.1331302265542291</v>
       </c>
       <c r="G48">
-        <v>-0.5944621421273413</v>
+        <v>-0.1655497023459134</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1741,19 +1891,19 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.3513677555053363</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>-0.1119095091543159</v>
+        <v>-0.1878071214384391</v>
       </c>
       <c r="D49">
-        <v>0.9689328700291355</v>
+        <v>0.2156739777684038</v>
       </c>
       <c r="E49">
-        <v>-1.214657057377807</v>
+        <v>0.2509409036651675</v>
       </c>
       <c r="F49">
-        <v>-0.576666004305878</v>
+        <v>-0.1477535645244501</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1761,16 +1911,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>0.07589761228412328</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>0.8506042951695463</v>
+        <v>0.09734540290881455</v>
       </c>
       <c r="D50">
-        <v>-1.430057779387483</v>
+        <v>0.03554018165549166</v>
       </c>
       <c r="E50">
-        <v>-0.6228293108085412</v>
+        <v>-0.1939168710271133</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1778,13 +1928,13 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>0.7532588922607317</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>-1.429874414186827</v>
+        <v>0.03572354685614698</v>
       </c>
       <c r="D51">
-        <v>-0.5766660043058638</v>
+        <v>-0.1477535645244359</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1792,10 +1942,10 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>-1.465597961042974</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>-0.4428819327384874</v>
+        <v>-0.01396949295705951</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1803,7 +1953,7 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.4289124397814279</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/OPA/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/OPA/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -1195,10 +1195,10 @@
         <v>0.3136677548153841</v>
       </c>
       <c r="J25">
-        <v>0.1018155905464795</v>
+        <v>-0.9790448517306776</v>
       </c>
       <c r="K25">
-        <v>0.1027921018736606</v>
+        <v>0.3108804844682282</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1227,10 +1227,10 @@
         <v>0.01366775481539262</v>
       </c>
       <c r="I26">
-        <v>-0.198184409453512</v>
+        <v>-1.279044851730669</v>
       </c>
       <c r="J26">
-        <v>-0.1972078981263451</v>
+        <v>0.01088048446822254</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1256,10 +1256,10 @@
         <v>-0.03633224518459599</v>
       </c>
       <c r="H27">
-        <v>-0.248184409453529</v>
+        <v>-1.329044851730686</v>
       </c>
       <c r="I27">
-        <v>-0.2472078981263621</v>
+        <v>-0.03911951553179449</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1282,10 +1282,10 @@
         <v>-0.1863322451846073</v>
       </c>
       <c r="G28">
-        <v>-0.398184409453512</v>
+        <v>-1.479044851730669</v>
       </c>
       <c r="H28">
-        <v>-0.397207898126345</v>
+        <v>-0.1891195155317774</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1305,22 +1305,22 @@
         <v>0.1136677548154239</v>
       </c>
       <c r="F29">
-        <v>-0.09818440945349494</v>
+        <v>-1.179044851730652</v>
       </c>
       <c r="G29">
-        <v>-0.09720789812638486</v>
+        <v>0.1108804844681828</v>
       </c>
       <c r="H29">
-        <v>-0.0006632596227120757</v>
+        <v>2.32007603651995</v>
       </c>
       <c r="I29">
-        <v>-0.0005260309296772903</v>
+        <v>-0.585713798234863</v>
       </c>
       <c r="J29">
-        <v>-0.801866008463946</v>
+        <v>-0.2260365910423587</v>
       </c>
       <c r="K29">
-        <v>-0.8007110926345289</v>
+        <v>-0.6238769106320059</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1337,22 +1337,22 @@
         <v>0.06466775481543152</v>
       </c>
       <c r="E30">
-        <v>-0.1471844094535157</v>
+        <v>-1.228044851730673</v>
       </c>
       <c r="F30">
-        <v>-0.1462078981263488</v>
+        <v>0.06188048446821881</v>
       </c>
       <c r="G30">
-        <v>-0.04966325962270446</v>
+        <v>2.271076036519957</v>
       </c>
       <c r="H30">
-        <v>-0.04952603092964125</v>
+        <v>-0.634713798234827</v>
       </c>
       <c r="I30">
-        <v>-0.8508660084639383</v>
+        <v>-0.2750365910423511</v>
       </c>
       <c r="J30">
-        <v>-0.8497110926345497</v>
+        <v>-0.6728769106320267</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1366,22 +1366,22 @@
         <v>0.1136677548153813</v>
       </c>
       <c r="D31">
-        <v>-0.09818440945352336</v>
+        <v>-1.17904485173068</v>
       </c>
       <c r="E31">
-        <v>-0.09720789812632802</v>
+        <v>0.1108804844682396</v>
       </c>
       <c r="F31">
-        <v>-0.0006632596227547083</v>
+        <v>2.320076036519907</v>
       </c>
       <c r="G31">
-        <v>-0.000526030929606236</v>
+        <v>-0.585713798234792</v>
       </c>
       <c r="H31">
-        <v>-0.8018660084639744</v>
+        <v>-0.2260365910423872</v>
       </c>
       <c r="I31">
-        <v>-0.8007110926345857</v>
+        <v>-0.6238769106320627</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1392,22 +1392,22 @@
         <v>-1.586332245184607</v>
       </c>
       <c r="C32">
-        <v>0.201815590546488</v>
+        <v>-0.879044851730669</v>
       </c>
       <c r="D32">
-        <v>0.002792101873654973</v>
+        <v>0.2108804844682226</v>
       </c>
       <c r="E32">
-        <v>-0.1006632596227007</v>
+        <v>2.220076036519961</v>
       </c>
       <c r="F32">
-        <v>-0.1005260309296233</v>
+        <v>-0.685713798234809</v>
       </c>
       <c r="G32">
-        <v>-0.901866008463963</v>
+        <v>-0.3260365910423758</v>
       </c>
       <c r="H32">
-        <v>-0.900711092634546</v>
+        <v>-0.723876910632023</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1415,34 +1415,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>-1.080860442277157</v>
       </c>
       <c r="C33">
-        <v>0.002792101873637876</v>
+        <v>0.2108804844682055</v>
       </c>
       <c r="D33">
-        <v>-0.0003950226499398468</v>
+        <v>2.320344273492722</v>
       </c>
       <c r="E33">
-        <v>-0.0005260309296346577</v>
+        <v>-0.5857137982348204</v>
       </c>
       <c r="F33">
-        <v>-0.8018660084639744</v>
+        <v>-0.2260365910423872</v>
       </c>
       <c r="G33">
-        <v>-0.8007110926345857</v>
+        <v>-0.6238769106320627</v>
       </c>
       <c r="H33">
-        <v>-0.6977662932861077</v>
+        <v>2.836777872354247</v>
       </c>
       <c r="I33">
-        <v>-0.2013714134183857</v>
+        <v>-0.09340513149564345</v>
       </c>
       <c r="J33">
-        <v>0.2961470224151128</v>
+        <v>-0.3299754819599623</v>
       </c>
       <c r="K33">
-        <v>-0.2991743200616526</v>
+        <v>-0.004381049978860574</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1450,31 +1450,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>0.2080883825945676</v>
       </c>
       <c r="C34">
-        <v>-0.0003547099741041393</v>
+        <v>2.320384586168557</v>
       </c>
       <c r="D34">
-        <v>-0.0005260309296346577</v>
+        <v>-0.5857137982348204</v>
       </c>
       <c r="E34">
-        <v>-0.8018660084640028</v>
+        <v>-0.2260365910424156</v>
       </c>
       <c r="F34">
-        <v>-0.8007110926345573</v>
+        <v>-0.6238769106320343</v>
       </c>
       <c r="G34">
-        <v>-0.6977662932861504</v>
+        <v>2.836777872354205</v>
       </c>
       <c r="H34">
-        <v>-0.2013714134183573</v>
+        <v>-0.09340513149561502</v>
       </c>
       <c r="I34">
-        <v>0.2961470224150702</v>
+        <v>-0.3299754819600049</v>
       </c>
       <c r="J34">
-        <v>-0.299174320061681</v>
+        <v>-0.004381049978888996</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1482,28 +1482,28 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>2.320739296142662</v>
       </c>
       <c r="C35">
-        <v>-0.0005260309296346577</v>
+        <v>-0.5857137982348204</v>
       </c>
       <c r="D35">
-        <v>-0.8018660084640028</v>
+        <v>-0.2260365910424156</v>
       </c>
       <c r="E35">
-        <v>-0.8007110926345289</v>
+        <v>-0.6238769106320059</v>
       </c>
       <c r="F35">
-        <v>-0.6977662932861219</v>
+        <v>2.836777872354233</v>
       </c>
       <c r="G35">
-        <v>-0.2013714134183573</v>
+        <v>-0.09340513149561502</v>
       </c>
       <c r="H35">
-        <v>0.2961470224150844</v>
+        <v>-0.3299754819599907</v>
       </c>
       <c r="I35">
-        <v>-0.2991743200616526</v>
+        <v>-0.004381049978860574</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1511,25 +1511,25 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>-0.5851877673051857</v>
       </c>
       <c r="C36">
-        <v>-0.8018660084639744</v>
+        <v>-0.2260365910423872</v>
       </c>
       <c r="D36">
-        <v>-0.8007110926345573</v>
+        <v>-0.6238769106320343</v>
       </c>
       <c r="E36">
-        <v>-0.6977662932861504</v>
+        <v>2.836777872354205</v>
       </c>
       <c r="F36">
-        <v>-0.2013714134184141</v>
+        <v>-0.09340513149567187</v>
       </c>
       <c r="G36">
-        <v>0.2961470224151128</v>
+        <v>-0.3299754819599623</v>
       </c>
       <c r="H36">
-        <v>-0.2991743200616526</v>
+        <v>-0.004381049978860574</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1537,34 +1537,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.5758294174215872</v>
       </c>
       <c r="C37">
-        <v>-0.0007110926345179625</v>
+        <v>0.176123089368005</v>
       </c>
       <c r="D37">
-        <v>0.301240976081687</v>
+        <v>3.835785141722042</v>
       </c>
       <c r="E37">
-        <v>0.5986285865816396</v>
+        <v>0.7065948685043819</v>
       </c>
       <c r="F37">
-        <v>0.5961470224150958</v>
+        <v>-0.02997548195997934</v>
       </c>
       <c r="G37">
-        <v>0.0008256799383303814</v>
+        <v>0.2956189500211224</v>
       </c>
       <c r="H37">
-        <v>0.2649614932497428</v>
+        <v>0.7593444227005932</v>
       </c>
       <c r="I37">
-        <v>0.6865566064729194</v>
+        <v>0.473188827696518</v>
       </c>
       <c r="J37">
-        <v>0.5370735779135885</v>
+        <v>0.5950343932174889</v>
       </c>
       <c r="K37">
-        <v>0.5908806866467131</v>
+        <v>0.1613548489792436</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1572,31 +1572,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>0.176834182002523</v>
       </c>
       <c r="C38">
-        <v>0.299828063361091</v>
+        <v>3.834372229001446</v>
       </c>
       <c r="D38">
-        <v>0.5986285865816536</v>
+        <v>0.7065948685043959</v>
       </c>
       <c r="E38">
-        <v>0.5961470224150816</v>
+        <v>-0.02997548195999356</v>
       </c>
       <c r="F38">
-        <v>0.0008256799383734581</v>
+        <v>0.2956189500211654</v>
       </c>
       <c r="G38">
-        <v>0.264961493249686</v>
+        <v>0.7593444227005364</v>
       </c>
       <c r="H38">
-        <v>0.6865566064729336</v>
+        <v>0.4731888276965322</v>
       </c>
       <c r="I38">
-        <v>0.5370735779136169</v>
+        <v>0.5950343932175173</v>
       </c>
       <c r="J38">
-        <v>0.5908806866467131</v>
+        <v>0.1613548489792436</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1604,28 +1604,28 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>3.534544165640355</v>
       </c>
       <c r="C39">
-        <v>0.7986285865816427</v>
+        <v>0.906594868504385</v>
       </c>
       <c r="D39">
-        <v>0.5961470224150958</v>
+        <v>-0.02997548195997934</v>
       </c>
       <c r="E39">
-        <v>-0.09917432006166393</v>
+        <v>0.1956189500211281</v>
       </c>
       <c r="F39">
-        <v>0.2649614932497002</v>
+        <v>0.7593444227005506</v>
       </c>
       <c r="G39">
-        <v>0.6865566064729336</v>
+        <v>0.4731888276965322</v>
       </c>
       <c r="H39">
-        <v>0.1370735779136112</v>
+        <v>0.1950343932175116</v>
       </c>
       <c r="I39">
-        <v>0.1908806866466932</v>
+        <v>-0.2386451510207763</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1633,25 +1633,25 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>0.1079662819227423</v>
       </c>
       <c r="C40">
-        <v>0.7961470224151692</v>
+        <v>0.1700245180400941</v>
       </c>
       <c r="D40">
-        <v>0.2008256799383044</v>
+        <v>0.4956189500210963</v>
       </c>
       <c r="E40">
-        <v>0.3649614932497087</v>
+        <v>0.8593444227005591</v>
       </c>
       <c r="F40">
-        <v>0.6865566064729336</v>
+        <v>0.4731888276965322</v>
       </c>
       <c r="G40">
-        <v>0.4370735779136083</v>
+        <v>0.4950343932175088</v>
       </c>
       <c r="H40">
-        <v>0.4908806866467756</v>
+        <v>0.0613548489793061</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1659,34 +1659,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>-0.6261225043750751</v>
       </c>
       <c r="C41">
-        <v>-0.5991743200616639</v>
+        <v>-0.3043810499788719</v>
       </c>
       <c r="D41">
-        <v>0.1643192017556316</v>
+        <v>0.658702131206482</v>
       </c>
       <c r="E41">
-        <v>0.5866222934239147</v>
+        <v>0.3732545146475133</v>
       </c>
       <c r="F41">
-        <v>0.6372054155785913</v>
+        <v>0.6951662308824917</v>
       </c>
       <c r="G41">
-        <v>0.6910340102173225</v>
+        <v>0.2615081725498529</v>
       </c>
       <c r="H41">
-        <v>0.3659356850048283</v>
+        <v>2.147035121354733</v>
       </c>
       <c r="I41">
-        <v>0.5014986564949311</v>
+        <v>0.2436720223698501</v>
       </c>
       <c r="J41">
-        <v>0.2950397778752176</v>
+        <v>-0.1119095091543443</v>
       </c>
       <c r="K41">
-        <v>-0.1878071214384676</v>
+        <v>0.675040353419746</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1694,31 +1694,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>0.294793270082792</v>
       </c>
       <c r="C42">
-        <v>0.2599882530890767</v>
+        <v>0.7543711825399271</v>
       </c>
       <c r="D42">
-        <v>0.6869528964790135</v>
+        <v>0.4735851177026121</v>
       </c>
       <c r="E42">
-        <v>0.537478335329638</v>
+        <v>0.5954391506335384</v>
       </c>
       <c r="F42">
-        <v>0.4914237336710129</v>
+        <v>0.06189789600354345</v>
       </c>
       <c r="G42">
-        <v>0.1654280100687515</v>
+        <v>1.946527446418656</v>
       </c>
       <c r="H42">
-        <v>0.5014986564950163</v>
+        <v>0.2436720223699353</v>
       </c>
       <c r="I42">
-        <v>0.5950397778751864</v>
+        <v>0.1880904908456245</v>
       </c>
       <c r="J42">
-        <v>0.1121928785615438</v>
+        <v>0.9750403534197574</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1726,28 +1726,28 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.4943829294508504</v>
       </c>
       <c r="C43">
-        <v>0.5047575476728952</v>
+        <v>0.2913897688964938</v>
       </c>
       <c r="D43">
-        <v>0.4393512295682456</v>
+        <v>0.497312044872146</v>
       </c>
       <c r="E43">
-        <v>0.6075993913555919</v>
+        <v>0.1780735536881224</v>
       </c>
       <c r="F43">
-        <v>0.1990444516557091</v>
+        <v>1.980143888005614</v>
       </c>
       <c r="G43">
-        <v>0.5162467886321593</v>
+        <v>0.2584201545070783</v>
       </c>
       <c r="H43">
-        <v>0.6100436951628865</v>
+        <v>0.2030944081333246</v>
       </c>
       <c r="I43">
-        <v>0.1311538716182667</v>
+        <v>0.9940013464764803</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1755,25 +1755,25 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>-0.2133677787764014</v>
       </c>
       <c r="C44">
-        <v>0.1038176256527663</v>
+        <v>0.1617784409566667</v>
       </c>
       <c r="D44">
-        <v>1.025912298756495</v>
+        <v>0.5963864610890259</v>
       </c>
       <c r="E44">
-        <v>0.5327916492894502</v>
+        <v>2.313891085639355</v>
       </c>
       <c r="F44">
-        <v>0.683870182429672</v>
+        <v>0.426043548304591</v>
       </c>
       <c r="G44">
-        <v>0.6945763472175344</v>
+        <v>0.2876270601879725</v>
       </c>
       <c r="H44">
-        <v>0.2198568693002017</v>
+        <v>1.082704344158415</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1781,31 +1781,28 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.0579608153039004</v>
       </c>
       <c r="C45">
-        <v>0.6551736204080782</v>
+        <v>0.2256477827406087</v>
       </c>
       <c r="D45">
-        <v>0.7037970355254541</v>
+        <v>2.484896471875359</v>
       </c>
       <c r="E45">
-        <v>0.7015684400103055</v>
+        <v>0.4437418058852245</v>
       </c>
       <c r="F45">
-        <v>0.7429326054778471</v>
+        <v>0.3359833184482852</v>
       </c>
       <c r="G45">
-        <v>0.07688201541489548</v>
+        <v>0.939729490273109</v>
       </c>
       <c r="H45">
-        <v>0.02104048533466596</v>
+        <v>-1.415398033202167</v>
       </c>
       <c r="I45">
-        <v>-0.03173094638775353</v>
-      </c>
-      <c r="J45">
-        <v>-0.3298315316655191</v>
+        <v>-0.659337854358782</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1813,28 +1810,25 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>-0.4295258376674695</v>
       </c>
       <c r="C46">
-        <v>-0.006443902551353631</v>
+        <v>1.774655533798551</v>
       </c>
       <c r="D46">
-        <v>0.3006939113475227</v>
+        <v>0.04286727722244166</v>
       </c>
       <c r="E46">
-        <v>0.3945758089843849</v>
+        <v>-0.01237347804517697</v>
       </c>
       <c r="F46">
-        <v>-0.08767860464232058</v>
+        <v>0.775168870215893</v>
       </c>
       <c r="G46">
-        <v>0.02211534693543626</v>
+        <v>-1.414323171601396</v>
       </c>
       <c r="H46">
-        <v>0.05094090366516468</v>
-      </c>
-      <c r="I46">
-        <v>-0.1477535645244359</v>
+        <v>-0.5766660043058638</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1842,25 +1836,22 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1.781099436349905</v>
       </c>
       <c r="C47">
-        <v>0.3029027033936985</v>
+        <v>0.0450760692686174</v>
       </c>
       <c r="D47">
-        <v>0.3957812309082982</v>
+        <v>-0.0111680561212637</v>
       </c>
       <c r="E47">
-        <v>-0.08357811879164956</v>
+        <v>0.779269356066564</v>
       </c>
       <c r="F47">
-        <v>0.01790301080829693</v>
+        <v>-1.418535507728536</v>
       </c>
       <c r="G47">
-        <v>0.05094090366512205</v>
-      </c>
-      <c r="H47">
-        <v>-0.147753564524379</v>
+        <v>-0.5766660043059064</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1868,92 +1859,74 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>-0.2578266341250811</v>
       </c>
       <c r="C48">
-        <v>0.1950397778752091</v>
+        <v>-0.2119095091543527</v>
       </c>
       <c r="D48">
-        <v>0.07752891479073298</v>
+        <v>0.9403763896489465</v>
       </c>
       <c r="E48">
-        <v>0.1852988316304902</v>
+        <v>-1.251139686906342</v>
       </c>
       <c r="F48">
-        <v>0.1331302265542291</v>
-      </c>
-      <c r="G48">
-        <v>-0.1655497023459134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.4944766814167993</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.4069492870295619</v>
       </c>
       <c r="C49">
-        <v>-0.1878071214384391</v>
+        <v>0.6750403534197744</v>
       </c>
       <c r="D49">
-        <v>0.2156739777684038</v>
+        <v>-1.220764540768429</v>
       </c>
       <c r="E49">
-        <v>0.2509409036651675</v>
-      </c>
-      <c r="F49">
-        <v>-0.1477535645244501</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.3766660043058609</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>0.8628474748582136</v>
       </c>
       <c r="C50">
-        <v>0.09734540290881455</v>
+        <v>-1.339093115628018</v>
       </c>
       <c r="D50">
-        <v>0.03554018165549166</v>
-      </c>
-      <c r="E50">
-        <v>-0.1939168710271133</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.5920667263155368</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>-1.436438518536832</v>
       </c>
       <c r="C51">
-        <v>0.03572354685614698</v>
-      </c>
-      <c r="D51">
-        <v>-0.1477535645244359</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.5918833611148815</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>-0.01396949295705951</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>-0.6276069079710285</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
